--- a/database2.xlsx
+++ b/database2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishu jain\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishu jain\OneDrive\Desktop\mahesh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33A7784-F4AC-4D8B-86B9-A5CFC8795D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1D0808-3D8C-4FA0-A278-BF1C0E49E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EF29F04-04CC-4002-AC43-A80AF6FC3E8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Adani Corporate Houseâ, Shantigram, Near Vaishnodevi Circle,S. G. Highway, Khodiyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office type </t>
+  </si>
+  <si>
+    <t>Headquarter</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,6 +556,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,23 +879,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C855875-2EC4-49EC-AE10-1E907FF4E5BA}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="23.44140625" style="3"/>
-    <col min="8" max="8" width="33.5546875" style="5" customWidth="1"/>
-    <col min="9" max="14" width="23.44140625" style="3"/>
-    <col min="15" max="15" width="28.5546875" style="3" customWidth="1"/>
+    <col min="3" max="8" width="23.44140625" style="3"/>
+    <col min="9" max="9" width="33.5546875" style="5" customWidth="1"/>
+    <col min="10" max="15" width="23.44140625" style="3"/>
+    <col min="16" max="16" width="28.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,32 +917,35 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -957,20 +967,23 @@
       <c r="G2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>382421</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -992,46 +1005,49 @@
       <c r="G3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>226010</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>8953542678</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>9560372130</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1053,32 +1069,35 @@
       <c r="G5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>500081</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>7997879133</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1100,29 +1119,32 @@
       <c r="G6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>500034</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="8">
         <v>9440690329</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1144,30 +1166,33 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>462016</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>6264420952</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1189,27 +1214,30 @@
       <c r="G8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>683542</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7972328601</v>
       </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1231,29 +1259,32 @@
       <c r="G9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>302001</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7986080765</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1275,30 +1306,33 @@
       <c r="G10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400072</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9833559528</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1320,30 +1354,33 @@
       <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>122018</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>9205584226</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1365,30 +1402,33 @@
       <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500073</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9652900422</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1410,34 +1450,37 @@
       <c r="G13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>500033</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>9985754754</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1452,93 +1495,96 @@
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500037</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9701611135</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9989932511</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4"/>
+      <c r="P15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>9484238355</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9491114007</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4"/>
+      <c r="P17" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9790245217</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -1560,32 +1606,35 @@
       <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>380058</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>9909982915</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -1607,30 +1656,33 @@
       <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>516390</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9491383231</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="4"/>
+      <c r="P20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -1652,32 +1704,35 @@
       <c r="G21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>411045</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7900069193</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -1699,29 +1754,32 @@
       <c r="G22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500034</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8283840766</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -1743,29 +1801,32 @@
       <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>751024</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7328865005</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -1787,44 +1848,47 @@
       <c r="G24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>302021</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9785374724</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="4"/>
+      <c r="P24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>9829057499</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="4"/>
+      <c r="P25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1846,30 +1910,33 @@
       <c r="G26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>515001</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9642314100</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="4"/>
+      <c r="P26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -1891,32 +1958,35 @@
       <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>530026</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9849533677</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -1938,87 +2008,90 @@
       <c r="G28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>342006</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>9963161228</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="8:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="7"/>
+    <row r="29" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="9:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P47">
     <sortCondition ref="B1:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
